--- a/Excel Workbooks/100/100Pi7.xlsx
+++ b/Excel Workbooks/100/100Pi7.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\100\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447705E-22EF-4357-96A8-6CC4EA6CB4DB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +441,40 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.3528802660119029</v>
+        <v>0.35288026601190292</v>
       </c>
       <c r="B2">
-        <v>0.5863093229675078</v>
+        <v>0.58630932296750782</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>0.05840734641020706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5.8407346410207062E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.5400038934707616</v>
+        <v>0.54000389347076161</v>
       </c>
       <c r="B3">
-        <v>0.4028642901686033</v>
+        <v>0.40286429016860331</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>1.859163578813024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.8591635788130241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.257932459847623</v>
+        <v>0.25793245984762297</v>
       </c>
       <c r="B4">
-        <v>0.7915493789166544</v>
+        <v>0.79154937891665444</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,777 +483,777 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.9021944177132936</v>
+        <v>0.90219441771329356</v>
       </c>
       <c r="B5">
-        <v>0.2828488416614608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.28284884166146079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.7149802743035854</v>
+        <v>0.71498027430358535</v>
       </c>
       <c r="B6">
-        <v>0.7598714375745108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.75987143757451081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.8447528343194809</v>
+        <v>0.84475283431948089</v>
       </c>
       <c r="B7">
-        <v>0.7143423346503582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.71434233465035823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.6799974830393017</v>
+        <v>0.67999748303930174</v>
       </c>
       <c r="B8">
-        <v>0.7382170593208873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.73821705932088733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.441963035101409</v>
       </c>
       <c r="B9">
-        <v>0.8767213860509621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.87672138605096206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.3486339195461867</v>
+        <v>0.34863391954618672</v>
       </c>
       <c r="B10">
-        <v>0.6166030132367294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.61660301323672939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.3399200166162019</v>
+        <v>0.33992001661620191</v>
       </c>
       <c r="B11">
-        <v>0.7256295659561217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.72562956595612171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.492503586352555</v>
+        <v>0.49250358635255498</v>
       </c>
       <c r="B12">
-        <v>0.03509935007082998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>3.5099350070829982E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.8813875094715355</v>
+        <v>0.88138750947153555</v>
       </c>
       <c r="B13">
-        <v>0.9203726419471567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.92037264194715673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.6772153837916745</v>
+        <v>0.67721538379167445</v>
       </c>
       <c r="B14">
-        <v>0.6198779485816066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.61987794858160661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.2606835217083898</v>
+        <v>0.26068352170838982</v>
       </c>
       <c r="B15">
-        <v>0.06636368878047016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>6.6363688780470165E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.1569366041781634</v>
+        <v>0.15693660417816341</v>
       </c>
       <c r="B16">
-        <v>0.1792402159296256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.17924021592962561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.8050952217501277</v>
+        <v>0.80509522175012771</v>
       </c>
       <c r="B17">
-        <v>0.6808885179573673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.68088851795736727</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.729150067669865</v>
+        <v>0.72915006766986501</v>
       </c>
       <c r="B18">
-        <v>0.8400591926453591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.84005919264535911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.3883053162064322</v>
+        <v>0.38830531620643222</v>
       </c>
       <c r="B19">
-        <v>0.6785899082736513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.67858990827365129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.7339090848990322</v>
+        <v>0.73390908489903217</v>
       </c>
       <c r="B20">
-        <v>0.3602865609324291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.36028656093242911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.7545862586652984</v>
+        <v>0.75458625866529838</v>
       </c>
       <c r="B21">
         <v>0.1116596759399229</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.2512571188227036</v>
+        <v>0.25125711882270357</v>
       </c>
       <c r="B22">
-        <v>0.4459454887494793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.44594548874947931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.4834810451409859</v>
+        <v>0.48348104514098589</v>
       </c>
       <c r="B23">
         <v>0.1454807778097634</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.329889188512241</v>
+        <v>0.32988918851224103</v>
       </c>
       <c r="B24">
-        <v>0.0953628427965213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>9.5362842796521297E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.5234186177347059</v>
+        <v>0.52341861773470588</v>
       </c>
       <c r="B25">
-        <v>0.5099043993006446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.50990439930064457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.6307264513273617</v>
+        <v>0.63072645132736171</v>
       </c>
       <c r="B26">
-        <v>0.8952146578926273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.89521465789262733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.4110905320133886</v>
+        <v>0.41109053201338858</v>
       </c>
       <c r="B27">
-        <v>0.2097914220995943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.20979142209959431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.2901873484187614</v>
+        <v>0.29018734841876143</v>
       </c>
       <c r="B28">
         <v>0.8264544721999415</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.4815909802001316</v>
+        <v>0.48159098020013158</v>
       </c>
       <c r="B29">
-        <v>0.4489925042955688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.44899250429556881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.8585930542216925</v>
+        <v>0.85859305422169252</v>
       </c>
       <c r="B30">
-        <v>0.3071081293102815</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.30710812931028147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.007497040483458894</v>
+        <v>7.4970404834588944E-3</v>
       </c>
       <c r="B31">
-        <v>0.9833090429108488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.98330904291084875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.5426060830711831</v>
+        <v>0.54260608307118308</v>
       </c>
       <c r="B32">
-        <v>0.03535559718440173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>3.5355597184401732E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.7057508829931236</v>
+        <v>0.70575088299312361</v>
       </c>
       <c r="B33">
         <v>0.6014148132947178</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.1135498670395502</v>
       </c>
       <c r="B34">
-        <v>0.02747901364935379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>2.747901364935379E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.3283340388502295</v>
+        <v>0.32833403885022949</v>
       </c>
       <c r="B35">
         <v>0.4515662072472455</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.5286166883993414</v>
+        <v>0.52861668839934139</v>
       </c>
       <c r="B36">
-        <v>0.3652902353827467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.36529023538274669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.2232726582821776</v>
       </c>
       <c r="B37">
-        <v>0.7448208186146532</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.74482081861465321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.7317672260155522</v>
+        <v>0.73176722601555222</v>
       </c>
       <c r="B38">
-        <v>0.999827224158563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.99982722415856295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.9015468125846547</v>
+        <v>0.90154681258465474</v>
       </c>
       <c r="B39">
-        <v>0.1920273525544164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.19202735255441639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.003728680711317267</v>
+        <v>3.7286807113172671E-3</v>
       </c>
       <c r="B40">
-        <v>0.6661958263367566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.66619582633675656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.9231045511768179</v>
+        <v>0.92310455117681789</v>
       </c>
       <c r="B41">
-        <v>0.4170044664583232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.41700446645832318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.9536091594934615</v>
+        <v>0.95360915949346148</v>
       </c>
       <c r="B42">
-        <v>0.184447870034207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.18444787003420701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.2610613300838295</v>
+        <v>0.26106133008382948</v>
       </c>
       <c r="B43">
-        <v>0.04219853034526844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>4.2198530345268437E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.8636729938538357</v>
+        <v>0.86367299385383567</v>
       </c>
       <c r="B44">
-        <v>0.8525532457547964</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.85255324575479641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.9816871271848813</v>
+        <v>0.98168712718488127</v>
       </c>
       <c r="B45">
-        <v>0.09591955106380268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>9.5919551063802677E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.8186099746161256</v>
+        <v>0.81860997461612561</v>
       </c>
       <c r="B46">
-        <v>0.7293935363778999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.72939353637789994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.4657848069385382</v>
+        <v>0.46578480693853819</v>
       </c>
       <c r="B47">
-        <v>0.9162982783198307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.91629827831983068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.2893324585391818</v>
+        <v>0.28933245853918182</v>
       </c>
       <c r="B48">
-        <v>0.7099729547304269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.70997295473042688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.670303935400573</v>
+        <v>0.67030393540057298</v>
       </c>
       <c r="B49">
-        <v>0.1301872207753678</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.13018722077536779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.9472914534884572</v>
+        <v>0.94729145348845722</v>
       </c>
       <c r="B50">
-        <v>0.02885656784294799</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>2.8856567842947989E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.9029074856353303</v>
       </c>
       <c r="B51">
-        <v>0.480765791379725</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.48076579137972503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.8960787487417123</v>
+        <v>0.89607874874171234</v>
       </c>
       <c r="B52">
-        <v>0.2013627660309535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.20136276603095349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.1339896078500009</v>
+        <v>0.13398960785000091</v>
       </c>
       <c r="B53">
-        <v>0.8783451488664362</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.87834514886643622</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.4043386507744037</v>
+        <v>0.40433865077440367</v>
       </c>
       <c r="B54">
-        <v>0.4409051177354146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.44090511773541458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.1459933653960356</v>
+        <v>0.14599336539603561</v>
       </c>
       <c r="B55">
-        <v>0.9262067014606978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.92620670146069783</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.4486885548471143</v>
+        <v>0.44868855484711428</v>
       </c>
       <c r="B56">
-        <v>0.2585520433738592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.25855204337385918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.4600378504923361</v>
+        <v>0.46003785049233609</v>
       </c>
       <c r="B57">
-        <v>0.4199474910800617</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.41994749108006169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.9967215831729883</v>
+        <v>0.99672158317298831</v>
       </c>
       <c r="B58">
-        <v>0.01099499793231618</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>1.099499793231618E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.1838807942514155</v>
+        <v>0.18388079425141551</v>
       </c>
       <c r="B59">
         <v>0.5646304282321285</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.7574673971294787</v>
+        <v>0.75746739712947875</v>
       </c>
       <c r="B60">
-        <v>0.1336661902935744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.13366619029357441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.2823548291656204</v>
+        <v>0.28235482916562038</v>
       </c>
       <c r="B61">
-        <v>0.7098413876378694</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.70984138763786941</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.8678353207219724</v>
+        <v>0.86783532072197245</v>
       </c>
       <c r="B62">
         <v>0.7523484766402817</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.4992373036580434</v>
+        <v>0.49923730365804342</v>
       </c>
       <c r="B63">
-        <v>0.6517078790381564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.65170787903815641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.5180909492829068</v>
+        <v>0.51809094928290678</v>
       </c>
       <c r="B64">
         <v>0.6393151057258567</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.1401823344338271</v>
       </c>
       <c r="B65">
-        <v>0.8741996986489577</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.87419969864895775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.1917467676228828</v>
+        <v>0.19174676762288281</v>
       </c>
       <c r="B66">
-        <v>0.5943858261698289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.59438582616982893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.6964512742914573</v>
+        <v>0.69645127429145726</v>
       </c>
       <c r="B67">
-        <v>0.7296120695371898</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.72961206953718982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.8145252630662609</v>
+        <v>0.81452526306626094</v>
       </c>
       <c r="B68">
         <v>0.4891788719757304</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.3422890590026334</v>
       </c>
       <c r="B69">
-        <v>0.8344575978309788</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.83445759783097884</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.207594357527789</v>
+        <v>0.20759435752778899</v>
       </c>
       <c r="B70">
-        <v>0.07303345108141446</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>7.3033451081414458E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.9633236658365338</v>
+        <v>0.96332366583653384</v>
       </c>
       <c r="B71">
-        <v>0.5131312133750646</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.51313121337506462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.2497671510354164</v>
+        <v>0.24976715103541641</v>
       </c>
       <c r="B72">
-        <v>0.8602745427308817</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.86027454273088166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.8007979504850694</v>
+        <v>0.80079795048506941</v>
       </c>
       <c r="B73">
-        <v>0.4602939662807675</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.46029396628076752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.3621541929477121</v>
+        <v>0.36215419294771212</v>
       </c>
       <c r="B74">
-        <v>0.8996006781537342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.89960067815373423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.1474671922891057</v>
+        <v>0.14746719228910571</v>
       </c>
       <c r="B75">
         <v>0.1006789382503112</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.8897529448925524</v>
+        <v>0.88975294489255241</v>
       </c>
       <c r="B76">
         <v>0.1944839938656204</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.7001050574952451</v>
       </c>
       <c r="B77">
-        <v>0.6421945368618077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.64219453686180772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.2034393952589371</v>
+        <v>0.20343939525893709</v>
       </c>
       <c r="B78">
-        <v>0.6585464738551201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.65854647385512011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.8215031803176441</v>
+        <v>0.82150318031764413</v>
       </c>
       <c r="B79">
-        <v>0.5293789123094688</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.52937891230946876</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.935852905738209</v>
+        <v>0.93585290573820901</v>
       </c>
       <c r="B80">
-        <v>0.2665915636133772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.26659156361337721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.009973481924908101</v>
+        <v>9.9734819249081008E-3</v>
       </c>
       <c r="B81">
-        <v>0.9398564473547814</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.93985644735478135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.8824839168947091</v>
+        <v>0.88248391689470906</v>
       </c>
       <c r="B82">
-        <v>0.09123081995177973</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>9.1230819951779729E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.7332557433525877</v>
       </c>
       <c r="B83">
-        <v>0.2297279237159489</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.22972792371594891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.8870307661003053</v>
+        <v>0.88703076610030529</v>
       </c>
       <c r="B84">
-        <v>0.4022961052145418</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.40229610521454179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.2490710898515011</v>
+        <v>0.24907108985150109</v>
       </c>
       <c r="B85">
-        <v>0.4765536288514179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.47655362885141789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.009010861337988119</v>
+        <v>9.0108613379881186E-3</v>
       </c>
       <c r="B86">
-        <v>0.02681774914612534</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>2.6817749146125339E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.7801396849986231</v>
+        <v>0.78013968499862307</v>
       </c>
       <c r="B87">
-        <v>0.7900723813994863</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.79007238139948632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.389456145180241</v>
+        <v>0.38945614518024102</v>
       </c>
       <c r="B88">
-        <v>0.8418807120484766</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.84188071204847659</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.8157083626065186</v>
+        <v>0.81570836260651858</v>
       </c>
       <c r="B89">
         <v>0.2339200860965199</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.2733120379181492</v>
+        <v>0.27331203791814918</v>
       </c>
       <c r="B90">
-        <v>0.204476861495283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.20447686149528299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.9098107759474482</v>
+        <v>0.90981077594744819</v>
       </c>
       <c r="B91">
-        <v>0.3107091657557639</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.31070916575576391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.9611158095747605</v>
       </c>
       <c r="B92">
-        <v>0.870850901396572</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.87085090139657195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.798724306208532</v>
+        <v>0.79872430620853196</v>
       </c>
       <c r="B93">
         <v>0.2356557219124272</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.9701028195797574</v>
+        <v>0.97010281957975741</v>
       </c>
       <c r="B94">
-        <v>0.9272945310569901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.92729453105699011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0.3878865709060918</v>
       </c>
       <c r="B95">
-        <v>0.2063046396571366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.20630463965713661</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0.1149936407305218</v>
       </c>
       <c r="B96">
-        <v>0.2387232650856246</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.23872326508562461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.3859190641371352</v>
+        <v>0.38591906413713523</v>
       </c>
       <c r="B97">
         <v>0.418167785556122</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.8005574142357343</v>
+        <v>0.80055741423573434</v>
       </c>
       <c r="B98">
-        <v>0.6852247911948974</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.68522479119489743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.07330903807485956</v>
+        <v>7.3309038074859556E-2</v>
       </c>
       <c r="B99">
-        <v>0.6636184487545355</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.66361844875453546</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0.2070555083775952</v>
       </c>
       <c r="B100">
-        <v>0.9398413250871556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.93984132508715557</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.5511216755356602</v>
+        <v>0.55112167553566016</v>
       </c>
       <c r="B101">
         <v>0.1740756026845848</v>
